--- a/data/trans_orig/P79A5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A5_2023-Edad-trans_orig.xlsx
@@ -781,7 +781,7 @@
         <v>5948</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7519339234441372</v>
+        <v>0.7519339234441371</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
@@ -976,16 +976,16 @@
         <v>7956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2931</v>
+        <v>4438</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>9172</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8674367969056502</v>
+        <v>0.8674367969056503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3195984390834681</v>
+        <v>0.4838939207564079</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6241</v>
+        <v>4734</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1325632030943497</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6804015609165318</v>
+        <v>0.5161827532314028</v>
       </c>
     </row>
     <row r="9">
@@ -1146,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4580</v>
+        <v>4587</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4642989652988471</v>
+        <v>0.4642989652988472</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.855197704593343</v>
+        <v>0.8566058060999723</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1164,19 +1164,19 @@
         <v>6524</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3221</v>
+        <v>3239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8981</v>
+        <v>8980</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6634182467221563</v>
+        <v>0.6634182467221562</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3275492829727346</v>
+        <v>0.3293357199699331</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9132429914590862</v>
+        <v>0.9131161692394563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1185,19 +1185,19 @@
         <v>9010</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5215</v>
+        <v>5061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12521</v>
+        <v>12485</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5932157176313463</v>
+        <v>0.5932157176313464</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3433329920392165</v>
+        <v>0.3332008456414289</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8243215155556238</v>
+        <v>0.8219634372498171</v>
       </c>
     </row>
     <row r="11">
@@ -1220,7 +1220,7 @@
         <v>5355</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5357010347011528</v>
+        <v>0.5357010347011529</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0.1448022954066569</v>
@@ -1235,19 +1235,19 @@
         <v>3310</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6613</v>
+        <v>6595</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3365817532778439</v>
+        <v>0.3365817532778438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08675700854091405</v>
+        <v>0.0868838307605438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6724507170272653</v>
+        <v>0.6706642800300668</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1256,19 +1256,19 @@
         <v>6179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2668</v>
+        <v>2704</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9974</v>
+        <v>10128</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4067842823686537</v>
+        <v>0.4067842823686536</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1756784844443763</v>
+        <v>0.1780365627501828</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6566670079607831</v>
+        <v>0.6667991543585711</v>
       </c>
     </row>
     <row r="12">
@@ -1360,7 +1360,7 @@
         <v>8533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4665</v>
+        <v>4831</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>9653</v>
@@ -1369,7 +1369,7 @@
         <v>0.8839332389149378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.483253001717751</v>
+        <v>0.5004862965502853</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1381,19 +1381,19 @@
         <v>6444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3599</v>
+        <v>3669</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8546</v>
+        <v>8583</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6114911679889723</v>
+        <v>0.6114911679889725</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3415596489253514</v>
+        <v>0.3481240583908375</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8109942926946797</v>
+        <v>0.8144900799702744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1402,19 +1402,19 @@
         <v>14976</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10675</v>
+        <v>10332</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18036</v>
+        <v>17778</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7417359323545651</v>
+        <v>0.741735932354565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.528721818601218</v>
+        <v>0.5117122379919249</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8932829340406895</v>
+        <v>0.8805085438770265</v>
       </c>
     </row>
     <row r="14">
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5133</v>
+        <v>4861</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1160667610850623</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5317499748560884</v>
+        <v>0.5036062356675238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1452,19 +1452,19 @@
         <v>4094</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1992</v>
+        <v>1955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6939</v>
+        <v>6869</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3885088320110274</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1890057073053202</v>
+        <v>0.1855099200297256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6584403510746486</v>
+        <v>0.6518759416091624</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1473,19 +1473,19 @@
         <v>5215</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2155</v>
+        <v>2413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9516</v>
+        <v>9859</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2582640676454349</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1067170659593109</v>
+        <v>0.1194914561229738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4712781813987824</v>
+        <v>0.4882877620080751</v>
       </c>
     </row>
     <row r="15">
@@ -1577,19 +1577,19 @@
         <v>11253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7583</v>
+        <v>7244</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14006</v>
+        <v>14027</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7450087539357444</v>
+        <v>0.7450087539357442</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5020249221497248</v>
+        <v>0.4795516109203783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9272552826582796</v>
+        <v>0.9286057329389559</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1598,7 +1598,7 @@
         <v>6099</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4003</v>
+        <v>3387</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>6772</v>
@@ -1607,7 +1607,7 @@
         <v>0.9006092061130612</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5911370676668983</v>
+        <v>0.5001411000761499</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -1619,19 +1619,19 @@
         <v>17353</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12918</v>
+        <v>12940</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20320</v>
+        <v>20334</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7931755844243186</v>
+        <v>0.7931755844243187</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5904724017194786</v>
+        <v>0.591462060315217</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9287977670093249</v>
+        <v>0.9294434904806177</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>3852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7522</v>
+        <v>7861</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2549912460642557</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07274471734172029</v>
+        <v>0.07139426706104407</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4979750778502747</v>
+        <v>0.5204483890796217</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1672,16 +1672,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2769</v>
+        <v>3385</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09939079388693883</v>
+        <v>0.09939079388693885</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4088629323331016</v>
+        <v>0.4998588999238501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1690,19 +1690,19 @@
         <v>4525</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1558</v>
+        <v>1544</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8960</v>
+        <v>8938</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2068244155756814</v>
+        <v>0.2068244155756813</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07120223299067509</v>
+        <v>0.07055650951938251</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4095275982805213</v>
+        <v>0.4085379396847831</v>
       </c>
     </row>
     <row r="18">
@@ -1794,7 +1794,7 @@
         <v>3065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>4191</v>
@@ -1803,7 +1803,7 @@
         <v>0.7312281450349569</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2085266826687293</v>
+        <v>0.2057443049100464</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7033</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5231</v>
+        <v>5621</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>7419</v>
@@ -1824,7 +1824,7 @@
         <v>0.9479616589308727</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7051007680513495</v>
+        <v>0.7576780179234733</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1836,19 +1836,19 @@
         <v>10097</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7806</v>
+        <v>7838</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11239</v>
+        <v>11228</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8697201372579133</v>
+        <v>0.8697201372579132</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6723307045938893</v>
+        <v>0.6751253029920929</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9680746931053464</v>
+        <v>0.9670936973895635</v>
       </c>
     </row>
     <row r="20">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3317</v>
+        <v>3329</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2687718549650431</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7914733173312707</v>
+        <v>0.7942556950899534</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2188</v>
+        <v>1798</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05203834106912723</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2948992319486502</v>
+        <v>0.242321982076526</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1907,19 +1907,19 @@
         <v>1513</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3804</v>
+        <v>3772</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1302798627420868</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03192530689465358</v>
+        <v>0.03290630261043637</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3276692954061107</v>
+        <v>0.3248746970079068</v>
       </c>
     </row>
     <row r="21">
@@ -2180,19 +2180,19 @@
         <v>36725</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30472</v>
+        <v>29642</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42073</v>
+        <v>41172</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7829098225848206</v>
+        <v>0.7829098225848208</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6496181376544554</v>
+        <v>0.6319128372185565</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8969337726780046</v>
+        <v>0.8777225746063466</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2201,19 +2201,19 @@
         <v>34566</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29082</v>
+        <v>29187</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38957</v>
+        <v>38877</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7766793965992853</v>
+        <v>0.7766793965992854</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6534516627295398</v>
+        <v>0.6558198130645958</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8753391610379334</v>
+        <v>0.8735485801946213</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -2222,19 +2222,19 @@
         <v>71291</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63054</v>
+        <v>63065</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78208</v>
+        <v>78201</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7798764834244846</v>
+        <v>0.7798764834244849</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6897675212564072</v>
+        <v>0.6898889039084847</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8555444733097026</v>
+        <v>0.8554703021197981</v>
       </c>
     </row>
     <row r="26">
@@ -2251,19 +2251,19 @@
         <v>10183</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4835</v>
+        <v>5736</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16436</v>
+        <v>17266</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2170901774151792</v>
+        <v>0.2170901774151793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.103066227321996</v>
+        <v>0.1222774253936535</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3503818623455462</v>
+        <v>0.3680871627814439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -2272,19 +2272,19 @@
         <v>9939</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5548</v>
+        <v>5628</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15423</v>
+        <v>15318</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2233206034007148</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1246608389620668</v>
+        <v>0.1264514198053785</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.346548337270461</v>
+        <v>0.3441801869354043</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2293,19 +2293,19 @@
         <v>20122</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13205</v>
+        <v>13212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>28359</v>
+        <v>28348</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2201235165755154</v>
+        <v>0.2201235165755155</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1444555266902974</v>
+        <v>0.1445296978802019</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3102324787435927</v>
+        <v>0.3101110960915158</v>
       </c>
     </row>
     <row r="27">
